--- a/biology/Zoologie/Cassican_à_gorge_noire/Cassican_à_gorge_noire.xlsx
+++ b/biology/Zoologie/Cassican_à_gorge_noire/Cassican_à_gorge_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassican_%C3%A0_gorge_noire</t>
+          <t>Cassican_à_gorge_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cracticus nigrogularis
 Le Cassican à gorge noire (Cracticus nigrogularis) est une espèce d'oiseaux chanteurs de la famille des Artamidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassican_%C3%A0_gorge_noire</t>
+          <t>Cassican_à_gorge_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 35 cm pour un poids de 150 g. C'est un oiseau de taille moyenne. Les deux sexes sont identiques avec un bec noir, un plumage fait de taches blanches et noires. Il existe un collier blanc et les pattes noires. Chez les jeunes, le noir est remplacé par le brun. Il doit son nom anglais d'"oiseau boucher" au fait qu'il suspend ses proies à une branche pour les dévorer.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassican_%C3%A0_gorge_noire</t>
+          <t>Cassican_à_gorge_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans toute l'Australie à l'exception des côtes Sud et de la Tasmanie.
 Il habite les forêts sèches y compris à proximité des villes.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassican_%C3%A0_gorge_noire</t>
+          <t>Cassican_à_gorge_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de petits mammifères, d'oiseaux, de reptiles, d'amphibiens et d'insectes.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassican_%C3%A0_gorge_noire</t>
+          <t>Cassican_à_gorge_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison des amours est variable suivant les régions. La femelle couve seule les 3 à 5 œufs pondus dans un nid, parfois commun, situé en hauteur dans un arbre. Les deux parents élèvent les petits.
 </t>
